--- a/biology/Médecine/De_Humani_Corporis_Fabrica_(film)/De_Humani_Corporis_Fabrica_(film).xlsx
+++ b/biology/Médecine/De_Humani_Corporis_Fabrica_(film)/De_Humani_Corporis_Fabrica_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De Humani Corporis Fabrica est un film documentaire franco-suisse, réalisé par Lucien Castaing-Taylor et Véréna Paravel, sorti en 2022[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De Humani Corporis Fabrica est un film documentaire franco-suisse, réalisé par Lucien Castaing-Taylor et Véréna Paravel, sorti en 2022.
 Le film explore le corps humain à travers des représentations de chirurgies et d'autopsies dans plusieurs hôpitaux de la région parisienne, y compris des séquences en gros plan de l'intérieur du corps humain.
-Le titre du film est une référence à un traité d'anatomie humaine éponyme que l'on doit au médecin et anatomiste brabançon Andreas Vesalius (André Vésale)[2]. Il a été rédigé de 1539 à 1542, publié à Bâle en 1543, par Johannes Oporinus et réédité en 1555.
-Le film a été présenté en avant-première dans le cadre du programme de la Quinzaine des réalisateurs au Festival de Cannes 2022[3], ainsi que la cadre du Festival international du film de Toronto 2022 (Wavelengths programme) et du Festival du film de New York 2022.
+Le titre du film est une référence à un traité d'anatomie humaine éponyme que l'on doit au médecin et anatomiste brabançon Andreas Vesalius (André Vésale). Il a été rédigé de 1539 à 1542, publié à Bâle en 1543, par Johannes Oporinus et réédité en 1555.
+Le film a été présenté en avant-première dans le cadre du programme de la Quinzaine des réalisateurs au Festival de Cannes 2022, ainsi que la cadre du Festival international du film de Toronto 2022 (Wavelengths programme) et du Festival du film de New York 2022.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Titre original : De Humani Corporis Fabrica
 Réalisation : Lucien Castaing-Taylor et Véréna Paravel
@@ -522,8 +536,8 @@
 Son : Lucien Castaing-Taylor et Vénéra Paraval
 Montage son : Matthieu Fichet et Raphaël Sohier
 Montage : Lucien Castaing-Taylor et Vénéra Paraval
-Mixage : Bruno Ehlinger[4]
-Production : Valentina Novati, Charles Gillibert, Pauline Gugax, Max Karli, Lucien Castaing-Taylor et Vénéra Paraval[5]
+Mixage : Bruno Ehlinger
+Production : Valentina Novati, Charles Gillibert, Pauline Gugax, Max Karli, Lucien Castaing-Taylor et Vénéra Paraval
 Sociétés de production : Norte Productions, CG Cinema, Rira Productions et S.E.L.
 Sociétés de distribution : Les Films du losange
 Pays de production :  France et  Suisse
@@ -532,9 +546,9 @@
 Genre : documentaire
 Durée : 115 minutes
 Dates de sortie :
-France : 11 janvier 2023 (sortie nationale)[6] ; 23 mai 2022 (Cannes, Quinzaine des réalisateurs)
+France : 11 janvier 2023 (sortie nationale) ; 23 mai 2022 (Cannes, Quinzaine des réalisateurs)
 Classification :
-France : Interdit aux moins de 12 ans avec avertissement[7]</t>
+France : Interdit aux moins de 12 ans avec avertissement</t>
         </is>
       </c>
     </row>
@@ -562,13 +576,15 @@
           <t>Production et Genèse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lucien Castaing-Taylor et Véréna Paravel sont deux anthropologues, l'un né au Royaume-Uni et l'autre en Suisse. Ils ont déjà travaillé en duo en 2012, en réalisant un film expérimental sur la pêche industrielle en Amérique du Nord : Leviathan. 
-L'idée de De Humani Corporis Fabrica vient du constat que la médecine moderne s'est approprié les techniques du cinéma afin de perfectionner les interventions chirurgicales, des caméras étant de plus en plus utilisées à cette fin[8]. Il est en particulier question de l'endoscopie chirurgicale,  une méthode d'exploration visuelle de l'intérieur (endon en grec) d'une cavité inaccessible à l'œil utilisée pour l'intervention chirurgicale. L'instrument utilisé, appelé endoscope, est composé d'un tube optique muni d'un système d'éclairage. Lorsqu'il est couplé à une caméra vidéo, il peut retransmettre l'image sur un écran. 
+L'idée de De Humani Corporis Fabrica vient du constat que la médecine moderne s'est approprié les techniques du cinéma afin de perfectionner les interventions chirurgicales, des caméras étant de plus en plus utilisées à cette fin. Il est en particulier question de l'endoscopie chirurgicale,  une méthode d'exploration visuelle de l'intérieur (endon en grec) d'une cavité inaccessible à l'œil utilisée pour l'intervention chirurgicale. L'instrument utilisé, appelé endoscope, est composé d'un tube optique muni d'un système d'éclairage. Lorsqu'il est couplé à une caméra vidéo, il peut retransmettre l'image sur un écran. 
 Des images authentiques de cœlioscopie ont alors été récupérées et intégrées au film.
-Les réalisateurs ont expliqué que leur rencontre avec François Crémieux, qui à l’époque était le directeur de cinq hôpitaux du Nord de Paris, a été décisive pour la réalisation du film et l'attribution d'autorisation à filmer au sein d'hopitaux de la région parisienne[8].
+Les réalisateurs ont expliqué que leur rencontre avec François Crémieux, qui à l’époque était le directeur de cinq hôpitaux du Nord de Paris, a été décisive pour la réalisation du film et l'attribution d'autorisation à filmer au sein d'hopitaux de la région parisienne.
 </t>
         </is>
       </c>
@@ -599,10 +615,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Récompenses
-Festinal international du film de Valladolid 2022
-Prix du meilleur documentaire[9]
-Nominations</t>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Festinal international du film de Valladolid 2022
+Prix du meilleur documentaire</t>
         </is>
       </c>
     </row>
